--- a/Device_Info.xlsx
+++ b/Device_Info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sripada\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>S.No</t>
   </si>
@@ -35,47 +35,65 @@
     <t>Bus Number</t>
   </si>
   <si>
-    <t>TN07BR1608</t>
-  </si>
-  <si>
-    <t>TN07BR1609</t>
-  </si>
-  <si>
-    <t>TN07BR1610</t>
-  </si>
-  <si>
-    <t>TN07BR1611</t>
-  </si>
-  <si>
-    <t>TN07BR1612</t>
-  </si>
-  <si>
-    <t>TN07BR1613</t>
-  </si>
-  <si>
-    <t>TN07BR1614</t>
-  </si>
-  <si>
-    <t>TN07BR1615</t>
-  </si>
-  <si>
-    <t>TN07BR1616</t>
-  </si>
-  <si>
-    <t>TN07BR1617</t>
+    <t>Pavan_Car</t>
+  </si>
+  <si>
+    <t>TV_001</t>
+  </si>
+  <si>
+    <t>TV_002</t>
+  </si>
+  <si>
+    <t>TV_003</t>
+  </si>
+  <si>
+    <t>TV_004</t>
+  </si>
+  <si>
+    <t>TV_005</t>
+  </si>
+  <si>
+    <t>TV_006</t>
+  </si>
+  <si>
+    <t>TV_007</t>
+  </si>
+  <si>
+    <t>TV_008</t>
+  </si>
+  <si>
+    <t>TV_009</t>
+  </si>
+  <si>
+    <t>TV_010</t>
+  </si>
+  <si>
+    <t>Indra_Car</t>
+  </si>
+  <si>
+    <t>Demo_Gntur_01</t>
+  </si>
+  <si>
+    <t>Demo_Gntur_02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,8 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,15 +457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
@@ -483,7 +502,7 @@
         <v>1234567890</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -497,12 +516,12 @@
         <v>1234567890</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>382058</v>
@@ -511,12 +530,12 @@
         <v>1234567890</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>382059</v>
@@ -525,12 +544,12 @@
         <v>1234567890</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>382060</v>
@@ -539,12 +558,12 @@
         <v>1234567890</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>382061</v>
@@ -553,12 +572,12 @@
         <v>1234567890</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>382062</v>
@@ -567,12 +586,12 @@
         <v>1234567890</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>382063</v>
@@ -581,12 +600,12 @@
         <v>1234567890</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>382064</v>
@@ -595,12 +614,12 @@
         <v>1234567890</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>382065</v>
@@ -609,8 +628,82 @@
         <v>1234567890</v>
       </c>
       <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>445034462486</v>
+      </c>
+      <c r="C12">
+        <v>7824876034</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>445034131644</v>
+      </c>
+      <c r="C13">
+        <v>7824876041</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" s="1">
+        <v>445034558390</v>
+      </c>
+      <c r="C14">
+        <v>7824876032</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>445035990097</v>
+      </c>
+      <c r="C15">
+        <v>7824876043</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
